--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_94_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_94_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.528102277616216, 3.045610831765818]</t>
+          <t>[2.5260707845005186, 3.047642324881515]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.704474156243466, -2.528368862348542]</t>
+          <t>[-2.717053105807388, -2.5157899127846197]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.09021010594459566, 0.18408458179545883]</t>
+          <t>[-0.09028263553434046, 0.18415711138520363]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.4941700846617518</v>
+        <v>0.4943971636895446</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4941700846617518</v>
+        <v>0.4943971636895446</v>
       </c>
       <c r="W2" t="n">
         <v>9.290250250250402</v>
       </c>
       <c r="X2" t="n">
-        <v>8.977597597597743</v>
+        <v>8.932932932933081</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.602902902903061</v>
+        <v>9.647567567567723</v>
       </c>
     </row>
   </sheetData>
